--- a/APM files/Luca Work/LookUp file.xlsx
+++ b/APM files/Luca Work/LookUp file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://expediacorp-my.sharepoint.com/personal/llepori_sea_corp_expecn_com/Documents/VR TaskForce/Account list for auto triage/Shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\Luca Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{C8359B90-42D4-4745-B8BC-277FB0D14A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED12E273-6D5C-469B-A985-965BFC51319C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DFE85-F955-446C-A06F-DBC2417F9167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="4740" windowWidth="23100" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="1583">
   <si>
     <t>HappyHolidayHomes</t>
   </si>
@@ -4701,13 +4701,100 @@
   </si>
   <si>
     <t>Elias</t>
+  </si>
+  <si>
+    <t>0010y00001rm5FkAAI</t>
+  </si>
+  <si>
+    <t>VR Property Management Company</t>
+  </si>
+  <si>
+    <t>VR_PM Starheel Properties</t>
+  </si>
+  <si>
+    <t>VR_PM Tropical Villas Orlando</t>
+  </si>
+  <si>
+    <t>0010y00001d7ZXIAA2</t>
+  </si>
+  <si>
+    <t>VR_PM SummitCove</t>
+  </si>
+  <si>
+    <t>0010y00001YAslxAAD</t>
+  </si>
+  <si>
+    <t>VR_PM Sunlit Vacation Rentals LLC</t>
+  </si>
+  <si>
+    <t>0010y00001cHhAlAAK</t>
+  </si>
+  <si>
+    <t>VR_PM Sunny Dreams Factory</t>
+  </si>
+  <si>
+    <t>0010y00001eY7qoAAC</t>
+  </si>
+  <si>
+    <t>0018b00002YHtE5AAL</t>
+  </si>
+  <si>
+    <t>VR_PM TMC Vacation Rentals</t>
+  </si>
+  <si>
+    <t>0010y00001fcl68AAA</t>
+  </si>
+  <si>
+    <t>0010y00001dwbv6AAA</t>
+  </si>
+  <si>
+    <t>VR_PM OBS OnlineBuchungService GmbH</t>
+  </si>
+  <si>
+    <t>0010y00001aIj7KAAS</t>
+  </si>
+  <si>
+    <t>VR_PM Two Casitas, Santa Fe Vacation Rentals LLC</t>
+  </si>
+  <si>
+    <t>0010y00001bfaG0AAI</t>
+  </si>
+  <si>
+    <t>VR_PM To Islands Travel d.o.o.</t>
+  </si>
+  <si>
+    <t>0018b00001wAH8LAAW</t>
+  </si>
+  <si>
+    <t>VR_PM Stowe Resort Homes</t>
+  </si>
+  <si>
+    <t>0010y00001gGh64AAC</t>
+  </si>
+  <si>
+    <t>VR_PM Team W Properties</t>
+  </si>
+  <si>
+    <t>0010y00001aorajAAA</t>
+  </si>
+  <si>
+    <t>VR_PM Tenney Realty Services</t>
+  </si>
+  <si>
+    <t>0010y00001feu3GAAQ</t>
+  </si>
+  <si>
+    <t>VR_PM The Camp Bend</t>
+  </si>
+  <si>
+    <t>0010y00001fOJ3fAAG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4723,13 +4810,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4741,14 +4840,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5063,7 +5165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0F5EF-4D54-4256-8C77-D228487C7043}">
   <dimension ref="A1:E648"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="C357" sqref="C357"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8961,3412 +9065,4092 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="E339" t="s">
+      <c r="C339" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E339" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="E340" t="s">
+      <c r="C340" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E340" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="E341" t="s">
+      <c r="C341" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E341" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="E342" t="s">
+      <c r="C342" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E342" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="E343" t="s">
+      <c r="C343" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E343" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="E344" t="s">
+      <c r="C344" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E344" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="E345" t="s">
+      <c r="C345" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E345" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="E346" t="s">
+      <c r="C346" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E346" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="E347" t="s">
+      <c r="C347" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E347" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="E348" t="s">
+      <c r="C348" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E348" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="E349" t="s">
+      <c r="C349" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E349" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="E350" t="s">
+      <c r="C350" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E350" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="E351" t="s">
+      <c r="C351" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E351" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="E352" t="s">
+      <c r="C352" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E352" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="E353" t="s">
+      <c r="C353" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E353" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="E354" t="s">
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="E355" t="s">
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="E356" t="s">
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="E357" t="s">
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="E358" t="s">
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="E359" t="s">
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="E360" t="s">
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>14</v>
-      </c>
-      <c r="B361" t="s">
+      <c r="A361" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E361" t="s">
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>14</v>
-      </c>
-      <c r="B362" t="s">
+      <c r="A362" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="E362" t="s">
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>14</v>
-      </c>
-      <c r="B363" t="s">
+      <c r="A363" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="E363" t="s">
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>14</v>
-      </c>
-      <c r="B364" t="s">
+      <c r="A364" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="E364" t="s">
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>14</v>
-      </c>
-      <c r="B365" t="s">
+      <c r="A365" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="E365" t="s">
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>14</v>
-      </c>
-      <c r="B366" t="s">
+      <c r="A366" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="E366" t="s">
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>14</v>
-      </c>
-      <c r="B367" t="s">
+      <c r="A367" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="E367" t="s">
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>14</v>
-      </c>
-      <c r="B368" t="s">
+      <c r="A368" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="E368" t="s">
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>14</v>
-      </c>
-      <c r="B369" t="s">
+      <c r="A369" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E369" t="s">
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>14</v>
-      </c>
-      <c r="B370" t="s">
+      <c r="A370" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E370" t="s">
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>14</v>
-      </c>
-      <c r="B371" t="s">
+      <c r="A371" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="E371" t="s">
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>14</v>
-      </c>
-      <c r="B372" t="s">
+      <c r="A372" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="E372" t="s">
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>14</v>
-      </c>
-      <c r="B373" t="s">
+      <c r="A373" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="E373" t="s">
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>14</v>
-      </c>
-      <c r="B374" t="s">
+      <c r="A374" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="E374" t="s">
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>14</v>
-      </c>
-      <c r="B375" t="s">
+      <c r="A375" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="E375" t="s">
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>14</v>
-      </c>
-      <c r="B376" t="s">
+      <c r="A376" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="E376" t="s">
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>14</v>
-      </c>
-      <c r="B377" t="s">
+      <c r="A377" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="E377" t="s">
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>14</v>
-      </c>
-      <c r="B378" t="s">
+      <c r="A378" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="E378" t="s">
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>14</v>
-      </c>
-      <c r="B379" t="s">
+      <c r="A379" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="E379" t="s">
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>14</v>
-      </c>
-      <c r="B380" t="s">
+      <c r="A380" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="E380" t="s">
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>14</v>
-      </c>
-      <c r="B381" t="s">
+      <c r="A381" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E381" t="s">
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+      <c r="E381" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>14</v>
-      </c>
-      <c r="B382" t="s">
+      <c r="A382" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="E382" t="s">
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>14</v>
-      </c>
-      <c r="B383" t="s">
+      <c r="A383" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="E383" t="s">
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>14</v>
-      </c>
-      <c r="B384" t="s">
+      <c r="A384" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B384" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="E384" t="s">
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>14</v>
-      </c>
-      <c r="B385" t="s">
+      <c r="A385" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E385" t="s">
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+      <c r="E385" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>14</v>
-      </c>
-      <c r="B386" t="s">
+      <c r="A386" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E386" t="s">
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
+      <c r="E386" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>14</v>
-      </c>
-      <c r="B387" t="s">
+      <c r="A387" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B387" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="E387" t="s">
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>14</v>
-      </c>
-      <c r="B388" t="s">
+      <c r="A388" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B388" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="E388" t="s">
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+      <c r="E388" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>14</v>
-      </c>
-      <c r="B389" t="s">
+      <c r="A389" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="E389" t="s">
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>14</v>
-      </c>
-      <c r="B390" t="s">
+      <c r="A390" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="E390" t="s">
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>14</v>
-      </c>
-      <c r="B391" t="s">
+      <c r="A391" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="E391" t="s">
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>14</v>
-      </c>
-      <c r="B392" t="s">
+      <c r="A392" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="E392" t="s">
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>14</v>
-      </c>
-      <c r="B393" t="s">
+      <c r="A393" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="E393" t="s">
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+      <c r="E393" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>14</v>
-      </c>
-      <c r="B394" t="s">
+      <c r="A394" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="E394" t="s">
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>14</v>
-      </c>
-      <c r="B395" t="s">
+      <c r="A395" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>1309</v>
       </c>
-      <c r="E395" t="s">
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>14</v>
-      </c>
-      <c r="B396" t="s">
+      <c r="A396" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="E396" t="s">
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="E396" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>14</v>
-      </c>
-      <c r="B397" t="s">
+      <c r="A397" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="E397" t="s">
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+      <c r="E397" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>14</v>
-      </c>
-      <c r="B398" t="s">
+      <c r="A398" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B398" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="E398" t="s">
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>14</v>
-      </c>
-      <c r="B399" t="s">
+      <c r="A399" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="E399" t="s">
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+      <c r="E399" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>14</v>
-      </c>
-      <c r="B400" t="s">
+      <c r="A400" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="E400" t="s">
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+      <c r="E400" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>14</v>
-      </c>
-      <c r="B401" t="s">
+      <c r="A401" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="E401" t="s">
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+      <c r="E401" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>14</v>
-      </c>
-      <c r="B402" t="s">
+      <c r="A402" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="E402" t="s">
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+      <c r="E402" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>14</v>
-      </c>
-      <c r="B403" t="s">
+      <c r="A403" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B403" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="E403" t="s">
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+      <c r="E403" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>14</v>
-      </c>
-      <c r="B404" t="s">
+      <c r="A404" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E404" t="s">
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>14</v>
-      </c>
-      <c r="B405" t="s">
+      <c r="A405" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E405" t="s">
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+      <c r="E405" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>14</v>
-      </c>
-      <c r="B406" t="s">
+      <c r="A406" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="E406" t="s">
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+      <c r="E406" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>14</v>
-      </c>
-      <c r="B407" t="s">
+      <c r="A407" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="E407" t="s">
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>14</v>
-      </c>
-      <c r="B408" t="s">
+      <c r="A408" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E408" t="s">
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>14</v>
-      </c>
-      <c r="B409" t="s">
+      <c r="A409" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E409" t="s">
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>14</v>
-      </c>
-      <c r="B410" t="s">
+      <c r="A410" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="E410" t="s">
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>14</v>
-      </c>
-      <c r="B411" t="s">
+      <c r="A411" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="E411" t="s">
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>14</v>
-      </c>
-      <c r="B412" t="s">
+      <c r="A412" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="E412" t="s">
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>14</v>
-      </c>
-      <c r="B413" t="s">
+      <c r="A413" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="E413" t="s">
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>14</v>
-      </c>
-      <c r="B414" t="s">
+      <c r="A414" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="E414" t="s">
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>14</v>
-      </c>
-      <c r="B415" t="s">
+      <c r="A415" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="E415" t="s">
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>14</v>
-      </c>
-      <c r="B416" t="s">
+      <c r="A416" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E416" t="s">
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>14</v>
-      </c>
-      <c r="B417" t="s">
+      <c r="A417" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="E417" t="s">
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>14</v>
-      </c>
-      <c r="B418" t="s">
+      <c r="A418" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E418" t="s">
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>14</v>
-      </c>
-      <c r="B419" t="s">
+      <c r="A419" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E419" t="s">
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>14</v>
-      </c>
-      <c r="B420" t="s">
+      <c r="A420" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="E420" t="s">
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>14</v>
-      </c>
-      <c r="B421" t="s">
+      <c r="A421" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>1327</v>
       </c>
-      <c r="E421" t="s">
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>14</v>
-      </c>
-      <c r="B422" t="s">
+      <c r="A422" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="E422" t="s">
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>14</v>
-      </c>
-      <c r="B423" t="s">
+      <c r="A423" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="E423" t="s">
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>14</v>
-      </c>
-      <c r="B424" t="s">
+      <c r="A424" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="E424" t="s">
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>14</v>
-      </c>
-      <c r="B425" t="s">
+      <c r="A425" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="E425" t="s">
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>14</v>
-      </c>
-      <c r="B426" t="s">
+      <c r="A426" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B426" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E426" t="s">
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>14</v>
-      </c>
-      <c r="B427" t="s">
+      <c r="A427" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="E427" t="s">
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>14</v>
-      </c>
-      <c r="B428" t="s">
+      <c r="A428" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="E428" t="s">
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>14</v>
-      </c>
-      <c r="B429" t="s">
+      <c r="A429" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="E429" t="s">
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>14</v>
-      </c>
-      <c r="B430" t="s">
+      <c r="A430" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="E430" t="s">
+      <c r="C430" s="2"/>
+      <c r="D430" s="2"/>
+      <c r="E430" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>14</v>
-      </c>
-      <c r="B431" t="s">
+      <c r="A431" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B431" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="E431" t="s">
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>14</v>
-      </c>
-      <c r="B432" t="s">
+      <c r="A432" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E432" t="s">
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+      <c r="E432" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>14</v>
-      </c>
-      <c r="B433" t="s">
+      <c r="A433" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B433" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="E433" t="s">
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>14</v>
-      </c>
-      <c r="B434" t="s">
+      <c r="A434" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E434" t="s">
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>14</v>
-      </c>
-      <c r="B435" t="s">
+      <c r="A435" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="E435" t="s">
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+      <c r="E435" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>14</v>
-      </c>
-      <c r="B436" t="s">
+      <c r="A436" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="E436" t="s">
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+      <c r="E436" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>14</v>
-      </c>
-      <c r="B437" t="s">
+      <c r="A437" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="E437" t="s">
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>14</v>
-      </c>
-      <c r="B438" t="s">
+      <c r="A438" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="E438" t="s">
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+      <c r="E438" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>14</v>
-      </c>
-      <c r="B439" t="s">
+      <c r="A439" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E439" t="s">
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+      <c r="E439" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>14</v>
-      </c>
-      <c r="B440" t="s">
+      <c r="A440" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="E440" t="s">
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>14</v>
-      </c>
-      <c r="B441" t="s">
+      <c r="A441" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="E441" t="s">
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>14</v>
-      </c>
-      <c r="B442" t="s">
+      <c r="A442" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="E442" t="s">
+      <c r="C442" s="2"/>
+      <c r="D442" s="2"/>
+      <c r="E442" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>14</v>
-      </c>
-      <c r="B443" t="s">
+      <c r="A443" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E443" t="s">
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>14</v>
-      </c>
-      <c r="B444" t="s">
+      <c r="A444" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="E444" t="s">
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+      <c r="E444" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>14</v>
-      </c>
-      <c r="B445" t="s">
+      <c r="A445" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="E445" t="s">
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>14</v>
-      </c>
-      <c r="B446" t="s">
+      <c r="A446" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B446" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="E446" t="s">
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>14</v>
-      </c>
-      <c r="B447" t="s">
+      <c r="A447" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B447" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="E447" t="s">
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>14</v>
-      </c>
-      <c r="B448" t="s">
+      <c r="A448" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B448" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="E448" t="s">
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+      <c r="E448" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>14</v>
-      </c>
-      <c r="B449" t="s">
+      <c r="A449" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="E449" t="s">
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>14</v>
-      </c>
-      <c r="B450" t="s">
+      <c r="A450" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B450" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="E450" t="s">
+      <c r="C450" s="2"/>
+      <c r="D450" s="2"/>
+      <c r="E450" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>14</v>
-      </c>
-      <c r="B451" t="s">
+      <c r="A451" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="E451" t="s">
+      <c r="C451" s="2"/>
+      <c r="D451" s="2"/>
+      <c r="E451" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>14</v>
-      </c>
-      <c r="B452" t="s">
+      <c r="A452" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B452" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="E452" t="s">
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>14</v>
-      </c>
-      <c r="B453" t="s">
+      <c r="A453" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B453" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E453" t="s">
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+      <c r="E453" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>14</v>
-      </c>
-      <c r="B454" t="s">
+      <c r="A454" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B454" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="E454" t="s">
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+      <c r="E454" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>14</v>
-      </c>
-      <c r="B455" t="s">
+      <c r="A455" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="E455" t="s">
+      <c r="C455" s="2"/>
+      <c r="D455" s="2"/>
+      <c r="E455" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>14</v>
-      </c>
-      <c r="B456" t="s">
+      <c r="A456" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="E456" t="s">
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+      <c r="E456" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>14</v>
-      </c>
-      <c r="B457" t="s">
+      <c r="A457" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B457" s="2" t="s">
         <v>1357</v>
       </c>
-      <c r="E457" t="s">
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+      <c r="E457" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>14</v>
-      </c>
-      <c r="B458" t="s">
+      <c r="A458" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B458" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="E458" t="s">
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+      <c r="E458" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>14</v>
-      </c>
-      <c r="B459" t="s">
+      <c r="A459" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B459" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="E459" t="s">
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+      <c r="E459" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>14</v>
-      </c>
-      <c r="B460" t="s">
+      <c r="A460" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="E460" t="s">
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>14</v>
-      </c>
-      <c r="B461" t="s">
+      <c r="A461" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B461" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="E461" t="s">
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>14</v>
-      </c>
-      <c r="B462" t="s">
+      <c r="A462" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="E462" t="s">
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+      <c r="E462" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>14</v>
-      </c>
-      <c r="B463" t="s">
+      <c r="A463" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B463" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="E463" t="s">
+      <c r="C463" s="2"/>
+      <c r="D463" s="2"/>
+      <c r="E463" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>14</v>
-      </c>
-      <c r="B464" t="s">
+      <c r="A464" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B464" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="E464" t="s">
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>14</v>
-      </c>
-      <c r="B465" t="s">
+      <c r="A465" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="E465" t="s">
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>14</v>
-      </c>
-      <c r="B466" t="s">
+      <c r="A466" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B466" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="E466" t="s">
+      <c r="C466" s="2"/>
+      <c r="D466" s="2"/>
+      <c r="E466" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>14</v>
-      </c>
-      <c r="B467" t="s">
+      <c r="A467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B467" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="E467" t="s">
+      <c r="C467" s="2"/>
+      <c r="D467" s="2"/>
+      <c r="E467" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>14</v>
-      </c>
-      <c r="B468" t="s">
+      <c r="A468" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="E468" t="s">
+      <c r="C468" s="2"/>
+      <c r="D468" s="2"/>
+      <c r="E468" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>14</v>
-      </c>
-      <c r="B469" t="s">
+      <c r="A469" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="E469" t="s">
+      <c r="C469" s="2"/>
+      <c r="D469" s="2"/>
+      <c r="E469" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>14</v>
-      </c>
-      <c r="B470" t="s">
+      <c r="A470" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="E470" t="s">
+      <c r="C470" s="2"/>
+      <c r="D470" s="2"/>
+      <c r="E470" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>14</v>
-      </c>
-      <c r="B471" t="s">
+      <c r="A471" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="E471" t="s">
+      <c r="C471" s="2"/>
+      <c r="D471" s="2"/>
+      <c r="E471" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>14</v>
-      </c>
-      <c r="B472" t="s">
+      <c r="A472" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="E472" t="s">
+      <c r="C472" s="2"/>
+      <c r="D472" s="2"/>
+      <c r="E472" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>14</v>
-      </c>
-      <c r="B473" t="s">
+      <c r="A473" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B473" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="E473" t="s">
+      <c r="C473" s="2"/>
+      <c r="D473" s="2"/>
+      <c r="E473" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>14</v>
-      </c>
-      <c r="B474" t="s">
+      <c r="A474" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="E474" t="s">
+      <c r="C474" s="2"/>
+      <c r="D474" s="2"/>
+      <c r="E474" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>14</v>
-      </c>
-      <c r="B475" t="s">
+      <c r="A475" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B475" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E475" t="s">
+      <c r="C475" s="2"/>
+      <c r="D475" s="2"/>
+      <c r="E475" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>14</v>
-      </c>
-      <c r="B476" t="s">
+      <c r="A476" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B476" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="E476" t="s">
+      <c r="C476" s="2"/>
+      <c r="D476" s="2"/>
+      <c r="E476" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>14</v>
-      </c>
-      <c r="B477" t="s">
+      <c r="A477" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B477" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E477" t="s">
+      <c r="C477" s="2"/>
+      <c r="D477" s="2"/>
+      <c r="E477" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>14</v>
-      </c>
-      <c r="B478" t="s">
+      <c r="A478" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B478" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="E478" t="s">
+      <c r="C478" s="2"/>
+      <c r="D478" s="2"/>
+      <c r="E478" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>14</v>
-      </c>
-      <c r="B479" t="s">
+      <c r="A479" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B479" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="E479" t="s">
+      <c r="C479" s="2"/>
+      <c r="D479" s="2"/>
+      <c r="E479" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>14</v>
-      </c>
-      <c r="B480" t="s">
+      <c r="A480" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B480" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="E480" t="s">
+      <c r="C480" s="2"/>
+      <c r="D480" s="2"/>
+      <c r="E480" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>14</v>
-      </c>
-      <c r="B481" t="s">
+      <c r="A481" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B481" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="E481" t="s">
+      <c r="C481" s="2"/>
+      <c r="D481" s="2"/>
+      <c r="E481" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>14</v>
-      </c>
-      <c r="B482" t="s">
+      <c r="A482" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B482" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="E482" t="s">
+      <c r="C482" s="2"/>
+      <c r="D482" s="2"/>
+      <c r="E482" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>14</v>
-      </c>
-      <c r="B483" t="s">
+      <c r="A483" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B483" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="E483" t="s">
+      <c r="C483" s="2"/>
+      <c r="D483" s="2"/>
+      <c r="E483" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>14</v>
-      </c>
-      <c r="B484" t="s">
+      <c r="A484" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B484" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E484" t="s">
+      <c r="C484" s="2"/>
+      <c r="D484" s="2"/>
+      <c r="E484" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>14</v>
-      </c>
-      <c r="B485" t="s">
+      <c r="A485" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B485" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="E485" t="s">
+      <c r="C485" s="2"/>
+      <c r="D485" s="2"/>
+      <c r="E485" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>14</v>
-      </c>
-      <c r="B486" t="s">
+      <c r="A486" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B486" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="E486" t="s">
+      <c r="C486" s="2"/>
+      <c r="D486" s="2"/>
+      <c r="E486" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>14</v>
-      </c>
-      <c r="B487" t="s">
+      <c r="A487" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B487" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="E487" t="s">
+      <c r="C487" s="2"/>
+      <c r="D487" s="2"/>
+      <c r="E487" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>14</v>
-      </c>
-      <c r="B488" t="s">
+      <c r="A488" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E488" t="s">
+      <c r="C488" s="2"/>
+      <c r="D488" s="2"/>
+      <c r="E488" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>14</v>
-      </c>
-      <c r="B489" t="s">
+      <c r="A489" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="E489" t="s">
+      <c r="C489" s="2"/>
+      <c r="D489" s="2"/>
+      <c r="E489" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>14</v>
-      </c>
-      <c r="B490" t="s">
+      <c r="A490" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B490" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="E490" t="s">
+      <c r="C490" s="2"/>
+      <c r="D490" s="2"/>
+      <c r="E490" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>14</v>
-      </c>
-      <c r="B491" t="s">
+      <c r="A491" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B491" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E491" t="s">
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+      <c r="E491" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>14</v>
-      </c>
-      <c r="B492" t="s">
+      <c r="A492" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B492" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E492" t="s">
+      <c r="C492" s="2"/>
+      <c r="D492" s="2"/>
+      <c r="E492" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>14</v>
-      </c>
-      <c r="B493" t="s">
+      <c r="A493" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B493" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="E493" t="s">
+      <c r="C493" s="2"/>
+      <c r="D493" s="2"/>
+      <c r="E493" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>14</v>
-      </c>
-      <c r="B494" t="s">
+      <c r="A494" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B494" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="E494" t="s">
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+      <c r="E494" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>14</v>
-      </c>
-      <c r="B495" t="s">
+      <c r="A495" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B495" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="E495" t="s">
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>14</v>
-      </c>
-      <c r="B496" t="s">
+      <c r="A496" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B496" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="E496" t="s">
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+      <c r="E496" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>14</v>
-      </c>
-      <c r="B497" t="s">
+      <c r="A497" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B497" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="E497" t="s">
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
+      <c r="E497" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>14</v>
-      </c>
-      <c r="B498" t="s">
+      <c r="A498" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B498" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E498" t="s">
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+      <c r="E498" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>14</v>
-      </c>
-      <c r="B499" t="s">
+      <c r="A499" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B499" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="E499" t="s">
+      <c r="C499" s="2"/>
+      <c r="D499" s="2"/>
+      <c r="E499" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>14</v>
-      </c>
-      <c r="B500" t="s">
+      <c r="A500" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B500" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="E500" t="s">
+      <c r="C500" s="2"/>
+      <c r="D500" s="2"/>
+      <c r="E500" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>14</v>
-      </c>
-      <c r="B501" t="s">
+      <c r="A501" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B501" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="E501" t="s">
+      <c r="C501" s="2"/>
+      <c r="D501" s="2"/>
+      <c r="E501" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>14</v>
-      </c>
-      <c r="B502" t="s">
+      <c r="A502" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="E502" t="s">
+      <c r="C502" s="2"/>
+      <c r="D502" s="2"/>
+      <c r="E502" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>14</v>
-      </c>
-      <c r="B503" t="s">
+      <c r="A503" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B503" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="E503" t="s">
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
+      <c r="E503" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>14</v>
-      </c>
-      <c r="B504" t="s">
+      <c r="A504" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B504" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="E504" t="s">
+      <c r="C504" s="2"/>
+      <c r="D504" s="2"/>
+      <c r="E504" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>14</v>
-      </c>
-      <c r="B505" t="s">
+      <c r="A505" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="E505" t="s">
+      <c r="C505" s="2"/>
+      <c r="D505" s="2"/>
+      <c r="E505" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>14</v>
-      </c>
-      <c r="B506" t="s">
+      <c r="A506" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B506" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="E506" t="s">
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+      <c r="E506" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>14</v>
-      </c>
-      <c r="B507" t="s">
+      <c r="A507" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B507" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="E507" t="s">
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+      <c r="E507" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>14</v>
-      </c>
-      <c r="B508" t="s">
+      <c r="A508" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B508" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E508" t="s">
+      <c r="C508" s="2"/>
+      <c r="D508" s="2"/>
+      <c r="E508" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>14</v>
-      </c>
-      <c r="B509" t="s">
+      <c r="A509" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B509" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="E509" t="s">
+      <c r="C509" s="2"/>
+      <c r="D509" s="2"/>
+      <c r="E509" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>14</v>
-      </c>
-      <c r="B510" t="s">
+      <c r="A510" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B510" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E510" t="s">
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+      <c r="E510" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>14</v>
-      </c>
-      <c r="B511" t="s">
+      <c r="A511" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B511" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="E511" t="s">
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>14</v>
-      </c>
-      <c r="B512" t="s">
+      <c r="A512" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B512" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="E512" t="s">
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>14</v>
-      </c>
-      <c r="B513" t="s">
+      <c r="A513" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B513" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="E513" t="s">
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+      <c r="E513" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>14</v>
-      </c>
-      <c r="B514" t="s">
+      <c r="A514" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B514" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="E514" t="s">
+      <c r="C514" s="2"/>
+      <c r="D514" s="2"/>
+      <c r="E514" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>14</v>
-      </c>
-      <c r="B515" t="s">
+      <c r="A515" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B515" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="E515" t="s">
+      <c r="C515" s="2"/>
+      <c r="D515" s="2"/>
+      <c r="E515" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>14</v>
-      </c>
-      <c r="B516" t="s">
+      <c r="A516" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B516" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="E516" t="s">
+      <c r="C516" s="2"/>
+      <c r="D516" s="2"/>
+      <c r="E516" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>14</v>
-      </c>
-      <c r="B517" t="s">
+      <c r="A517" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B517" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="E517" t="s">
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
+      <c r="E517" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>14</v>
-      </c>
-      <c r="B518" t="s">
+      <c r="A518" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B518" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="E518" t="s">
+      <c r="C518" s="2"/>
+      <c r="D518" s="2"/>
+      <c r="E518" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>14</v>
-      </c>
-      <c r="B519" t="s">
+      <c r="A519" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B519" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="E519" t="s">
+      <c r="C519" s="2"/>
+      <c r="D519" s="2"/>
+      <c r="E519" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>14</v>
-      </c>
-      <c r="B520" t="s">
+      <c r="A520" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B520" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="E520" t="s">
+      <c r="C520" s="2"/>
+      <c r="D520" s="2"/>
+      <c r="E520" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>14</v>
-      </c>
-      <c r="B521" t="s">
+      <c r="A521" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B521" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E521" t="s">
+      <c r="C521" s="2"/>
+      <c r="D521" s="2"/>
+      <c r="E521" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
-        <v>14</v>
-      </c>
-      <c r="B522" t="s">
+      <c r="A522" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B522" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="E522" t="s">
+      <c r="C522" s="2"/>
+      <c r="D522" s="2"/>
+      <c r="E522" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>14</v>
-      </c>
-      <c r="B523" t="s">
+      <c r="A523" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B523" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="E523" t="s">
+      <c r="C523" s="2"/>
+      <c r="D523" s="2"/>
+      <c r="E523" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>14</v>
-      </c>
-      <c r="B524" t="s">
+      <c r="A524" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B524" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="E524" t="s">
+      <c r="C524" s="2"/>
+      <c r="D524" s="2"/>
+      <c r="E524" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>14</v>
-      </c>
-      <c r="B525" t="s">
+      <c r="A525" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B525" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="E525" t="s">
+      <c r="C525" s="2"/>
+      <c r="D525" s="2"/>
+      <c r="E525" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
-        <v>14</v>
-      </c>
-      <c r="B526" t="s">
+      <c r="A526" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B526" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="E526" t="s">
+      <c r="C526" s="2"/>
+      <c r="D526" s="2"/>
+      <c r="E526" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>14</v>
-      </c>
-      <c r="B527" t="s">
+      <c r="A527" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B527" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="E527" t="s">
+      <c r="C527" s="2"/>
+      <c r="D527" s="2"/>
+      <c r="E527" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
-        <v>14</v>
-      </c>
-      <c r="B528" t="s">
+      <c r="A528" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B528" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="E528" t="s">
+      <c r="C528" s="2"/>
+      <c r="D528" s="2"/>
+      <c r="E528" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>14</v>
-      </c>
-      <c r="B529" t="s">
+      <c r="A529" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B529" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="E529" t="s">
+      <c r="C529" s="2"/>
+      <c r="D529" s="2"/>
+      <c r="E529" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>14</v>
-      </c>
-      <c r="B530" t="s">
+      <c r="A530" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B530" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="E530" t="s">
+      <c r="C530" s="2"/>
+      <c r="D530" s="2"/>
+      <c r="E530" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>14</v>
-      </c>
-      <c r="B531" t="s">
+      <c r="A531" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B531" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="E531" t="s">
+      <c r="C531" s="2"/>
+      <c r="D531" s="2"/>
+      <c r="E531" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>14</v>
-      </c>
-      <c r="B532" t="s">
+      <c r="A532" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B532" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="E532" t="s">
+      <c r="C532" s="2"/>
+      <c r="D532" s="2"/>
+      <c r="E532" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>14</v>
-      </c>
-      <c r="B533" t="s">
+      <c r="A533" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B533" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="E533" t="s">
+      <c r="C533" s="2"/>
+      <c r="D533" s="2"/>
+      <c r="E533" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>14</v>
-      </c>
-      <c r="B534" t="s">
+      <c r="A534" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B534" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="E534" t="s">
+      <c r="C534" s="2"/>
+      <c r="D534" s="2"/>
+      <c r="E534" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>14</v>
-      </c>
-      <c r="B535" t="s">
+      <c r="A535" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B535" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="E535" t="s">
+      <c r="C535" s="2"/>
+      <c r="D535" s="2"/>
+      <c r="E535" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>14</v>
-      </c>
-      <c r="B536" t="s">
+      <c r="A536" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B536" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="E536" t="s">
+      <c r="C536" s="2"/>
+      <c r="D536" s="2"/>
+      <c r="E536" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>14</v>
-      </c>
-      <c r="B537" t="s">
+      <c r="A537" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B537" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="E537" t="s">
+      <c r="C537" s="2"/>
+      <c r="D537" s="2"/>
+      <c r="E537" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>14</v>
-      </c>
-      <c r="B538" t="s">
+      <c r="A538" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B538" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="E538" t="s">
+      <c r="C538" s="2"/>
+      <c r="D538" s="2"/>
+      <c r="E538" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>14</v>
-      </c>
-      <c r="B539" t="s">
+      <c r="A539" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B539" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="E539" t="s">
+      <c r="C539" s="2"/>
+      <c r="D539" s="2"/>
+      <c r="E539" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>14</v>
-      </c>
-      <c r="B540" t="s">
+      <c r="A540" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B540" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="E540" t="s">
+      <c r="C540" s="2"/>
+      <c r="D540" s="2"/>
+      <c r="E540" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>14</v>
-      </c>
-      <c r="B541" t="s">
+      <c r="A541" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B541" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="E541" t="s">
+      <c r="C541" s="2"/>
+      <c r="D541" s="2"/>
+      <c r="E541" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>14</v>
-      </c>
-      <c r="B542" t="s">
+      <c r="A542" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B542" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="E542" t="s">
+      <c r="C542" s="2"/>
+      <c r="D542" s="2"/>
+      <c r="E542" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>14</v>
-      </c>
-      <c r="B543" t="s">
+      <c r="A543" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B543" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="E543" t="s">
+      <c r="C543" s="2"/>
+      <c r="D543" s="2"/>
+      <c r="E543" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>14</v>
-      </c>
-      <c r="B544" t="s">
+      <c r="A544" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B544" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="E544" t="s">
+      <c r="C544" s="2"/>
+      <c r="D544" s="2"/>
+      <c r="E544" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>14</v>
-      </c>
-      <c r="B545" t="s">
+      <c r="A545" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B545" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E545" t="s">
+      <c r="C545" s="2"/>
+      <c r="D545" s="2"/>
+      <c r="E545" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>14</v>
-      </c>
-      <c r="B546" t="s">
+      <c r="A546" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B546" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="E546" t="s">
+      <c r="C546" s="2"/>
+      <c r="D546" s="2"/>
+      <c r="E546" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>14</v>
-      </c>
-      <c r="B547" t="s">
+      <c r="A547" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B547" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="E547" t="s">
+      <c r="C547" s="2"/>
+      <c r="D547" s="2"/>
+      <c r="E547" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>14</v>
-      </c>
-      <c r="B548" t="s">
+      <c r="A548" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B548" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="E548" t="s">
+      <c r="C548" s="2"/>
+      <c r="D548" s="2"/>
+      <c r="E548" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>14</v>
-      </c>
-      <c r="B549" t="s">
+      <c r="A549" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B549" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="E549" t="s">
+      <c r="C549" s="2"/>
+      <c r="D549" s="2"/>
+      <c r="E549" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>14</v>
-      </c>
-      <c r="B550" t="s">
+      <c r="A550" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B550" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="E550" t="s">
+      <c r="C550" s="2"/>
+      <c r="D550" s="2"/>
+      <c r="E550" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>14</v>
-      </c>
-      <c r="B551" t="s">
+      <c r="A551" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B551" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="E551" t="s">
+      <c r="C551" s="2"/>
+      <c r="D551" s="2"/>
+      <c r="E551" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>14</v>
-      </c>
-      <c r="B552" t="s">
+      <c r="A552" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B552" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="E552" t="s">
+      <c r="C552" s="2"/>
+      <c r="D552" s="2"/>
+      <c r="E552" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>14</v>
-      </c>
-      <c r="B553" t="s">
+      <c r="A553" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B553" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="E553" t="s">
+      <c r="C553" s="2"/>
+      <c r="D553" s="2"/>
+      <c r="E553" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>14</v>
-      </c>
-      <c r="B554" t="s">
+      <c r="A554" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B554" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="E554" t="s">
+      <c r="C554" s="2"/>
+      <c r="D554" s="2"/>
+      <c r="E554" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>14</v>
-      </c>
-      <c r="B555" t="s">
+      <c r="A555" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B555" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="E555" t="s">
+      <c r="C555" s="2"/>
+      <c r="D555" s="2"/>
+      <c r="E555" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>14</v>
-      </c>
-      <c r="B556" t="s">
+      <c r="A556" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B556" s="2" t="s">
         <v>1439</v>
       </c>
-      <c r="E556" t="s">
+      <c r="C556" s="2"/>
+      <c r="D556" s="2"/>
+      <c r="E556" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>14</v>
-      </c>
-      <c r="B557" t="s">
+      <c r="A557" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B557" s="2" t="s">
         <v>1440</v>
       </c>
-      <c r="E557" t="s">
+      <c r="C557" s="2"/>
+      <c r="D557" s="2"/>
+      <c r="E557" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>14</v>
-      </c>
-      <c r="B558" t="s">
+      <c r="A558" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B558" s="2" t="s">
         <v>1441</v>
       </c>
-      <c r="E558" t="s">
+      <c r="C558" s="2"/>
+      <c r="D558" s="2"/>
+      <c r="E558" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>14</v>
-      </c>
-      <c r="B559" t="s">
+      <c r="A559" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B559" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="E559" t="s">
+      <c r="C559" s="2"/>
+      <c r="D559" s="2"/>
+      <c r="E559" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>14</v>
-      </c>
-      <c r="B560" t="s">
+      <c r="A560" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B560" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E560" t="s">
+      <c r="C560" s="2"/>
+      <c r="D560" s="2"/>
+      <c r="E560" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>14</v>
-      </c>
-      <c r="B561" t="s">
+      <c r="A561" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B561" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="E561" t="s">
+      <c r="C561" s="2"/>
+      <c r="D561" s="2"/>
+      <c r="E561" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>14</v>
-      </c>
-      <c r="B562" t="s">
+      <c r="A562" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B562" s="2" t="s">
         <v>1444</v>
       </c>
-      <c r="E562" t="s">
+      <c r="C562" s="2"/>
+      <c r="D562" s="2"/>
+      <c r="E562" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>14</v>
-      </c>
-      <c r="B563" t="s">
+      <c r="A563" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B563" s="2" t="s">
         <v>1445</v>
       </c>
-      <c r="E563" t="s">
+      <c r="C563" s="2"/>
+      <c r="D563" s="2"/>
+      <c r="E563" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>14</v>
-      </c>
-      <c r="B564" t="s">
+      <c r="A564" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B564" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="E564" t="s">
+      <c r="C564" s="2"/>
+      <c r="D564" s="2"/>
+      <c r="E564" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>14</v>
-      </c>
-      <c r="B565" t="s">
+      <c r="A565" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B565" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="E565" t="s">
+      <c r="C565" s="2"/>
+      <c r="D565" s="2"/>
+      <c r="E565" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>14</v>
-      </c>
-      <c r="B566" t="s">
+      <c r="A566" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B566" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="E566" t="s">
+      <c r="C566" s="2"/>
+      <c r="D566" s="2"/>
+      <c r="E566" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>14</v>
-      </c>
-      <c r="B567" t="s">
+      <c r="A567" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B567" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="E567" t="s">
+      <c r="C567" s="2"/>
+      <c r="D567" s="2"/>
+      <c r="E567" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>14</v>
-      </c>
-      <c r="B568" t="s">
+      <c r="A568" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B568" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="E568" t="s">
+      <c r="C568" s="2"/>
+      <c r="D568" s="2"/>
+      <c r="E568" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>14</v>
-      </c>
-      <c r="B569" t="s">
+      <c r="A569" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B569" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="E569" t="s">
+      <c r="C569" s="2"/>
+      <c r="D569" s="2"/>
+      <c r="E569" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>14</v>
-      </c>
-      <c r="B570" t="s">
+      <c r="A570" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B570" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="E570" t="s">
+      <c r="C570" s="2"/>
+      <c r="D570" s="2"/>
+      <c r="E570" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>14</v>
-      </c>
-      <c r="B571" t="s">
+      <c r="A571" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B571" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="E571" t="s">
+      <c r="C571" s="2"/>
+      <c r="D571" s="2"/>
+      <c r="E571" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>14</v>
-      </c>
-      <c r="B572" t="s">
+      <c r="A572" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B572" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="E572" t="s">
+      <c r="C572" s="2"/>
+      <c r="D572" s="2"/>
+      <c r="E572" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>14</v>
-      </c>
-      <c r="B573" t="s">
+      <c r="A573" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B573" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="E573" t="s">
+      <c r="C573" s="2"/>
+      <c r="D573" s="2"/>
+      <c r="E573" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>14</v>
-      </c>
-      <c r="B574" t="s">
+      <c r="A574" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B574" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="E574" t="s">
+      <c r="C574" s="2"/>
+      <c r="D574" s="2"/>
+      <c r="E574" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>14</v>
-      </c>
-      <c r="B575" t="s">
+      <c r="A575" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B575" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="E575" t="s">
+      <c r="C575" s="2"/>
+      <c r="D575" s="2"/>
+      <c r="E575" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>14</v>
-      </c>
-      <c r="B576" t="s">
+      <c r="A576" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B576" s="2" t="s">
         <v>1456</v>
       </c>
-      <c r="E576" t="s">
+      <c r="C576" s="2"/>
+      <c r="D576" s="2"/>
+      <c r="E576" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>14</v>
-      </c>
-      <c r="B577" t="s">
+      <c r="A577" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B577" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="E577" t="s">
+      <c r="C577" s="2"/>
+      <c r="D577" s="2"/>
+      <c r="E577" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>14</v>
-      </c>
-      <c r="B578" t="s">
+      <c r="A578" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B578" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="E578" t="s">
+      <c r="C578" s="2"/>
+      <c r="D578" s="2"/>
+      <c r="E578" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>14</v>
-      </c>
-      <c r="B579" t="s">
+      <c r="A579" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B579" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="E579" t="s">
+      <c r="C579" s="2"/>
+      <c r="D579" s="2"/>
+      <c r="E579" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>14</v>
-      </c>
-      <c r="B580" t="s">
+      <c r="A580" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B580" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="E580" t="s">
+      <c r="C580" s="2"/>
+      <c r="D580" s="2"/>
+      <c r="E580" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>14</v>
-      </c>
-      <c r="B581" t="s">
+      <c r="A581" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B581" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="E581" t="s">
+      <c r="C581" s="2"/>
+      <c r="D581" s="2"/>
+      <c r="E581" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>14</v>
-      </c>
-      <c r="B582" t="s">
+      <c r="A582" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B582" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="E582" t="s">
+      <c r="C582" s="2"/>
+      <c r="D582" s="2"/>
+      <c r="E582" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>14</v>
-      </c>
-      <c r="B583" t="s">
+      <c r="A583" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B583" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="E583" t="s">
+      <c r="C583" s="2"/>
+      <c r="D583" s="2"/>
+      <c r="E583" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>14</v>
-      </c>
-      <c r="B584" t="s">
+      <c r="A584" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B584" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="E584" t="s">
+      <c r="C584" s="2"/>
+      <c r="D584" s="2"/>
+      <c r="E584" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>14</v>
-      </c>
-      <c r="B585" t="s">
+      <c r="A585" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B585" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="E585" t="s">
+      <c r="C585" s="2"/>
+      <c r="D585" s="2"/>
+      <c r="E585" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>14</v>
-      </c>
-      <c r="B586" t="s">
+      <c r="A586" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B586" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="E586" t="s">
+      <c r="C586" s="2"/>
+      <c r="D586" s="2"/>
+      <c r="E586" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>14</v>
-      </c>
-      <c r="B587" t="s">
+      <c r="A587" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B587" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="E587" t="s">
+      <c r="C587" s="2"/>
+      <c r="D587" s="2"/>
+      <c r="E587" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>14</v>
-      </c>
-      <c r="B588" t="s">
+      <c r="A588" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B588" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="E588" t="s">
+      <c r="C588" s="2"/>
+      <c r="D588" s="2"/>
+      <c r="E588" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>14</v>
-      </c>
-      <c r="B589" t="s">
+      <c r="A589" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B589" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="E589" t="s">
+      <c r="C589" s="2"/>
+      <c r="D589" s="2"/>
+      <c r="E589" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>14</v>
-      </c>
-      <c r="B590" t="s">
+      <c r="A590" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B590" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="E590" t="s">
+      <c r="C590" s="2"/>
+      <c r="D590" s="2"/>
+      <c r="E590" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>14</v>
-      </c>
-      <c r="B591" t="s">
+      <c r="A591" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B591" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="E591" t="s">
+      <c r="C591" s="2"/>
+      <c r="D591" s="2"/>
+      <c r="E591" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>14</v>
-      </c>
-      <c r="B592" t="s">
+      <c r="A592" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B592" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="E592" t="s">
+      <c r="C592" s="2"/>
+      <c r="D592" s="2"/>
+      <c r="E592" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>14</v>
-      </c>
-      <c r="B593" t="s">
+      <c r="A593" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B593" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E593" t="s">
+      <c r="C593" s="2"/>
+      <c r="D593" s="2"/>
+      <c r="E593" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>14</v>
-      </c>
-      <c r="B594" t="s">
+      <c r="A594" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B594" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="E594" t="s">
+      <c r="C594" s="2"/>
+      <c r="D594" s="2"/>
+      <c r="E594" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>14</v>
-      </c>
-      <c r="B595" t="s">
+      <c r="A595" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B595" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="E595" t="s">
+      <c r="C595" s="2"/>
+      <c r="D595" s="2"/>
+      <c r="E595" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>14</v>
-      </c>
-      <c r="B596" t="s">
+      <c r="A596" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B596" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="E596" t="s">
+      <c r="C596" s="2"/>
+      <c r="D596" s="2"/>
+      <c r="E596" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>14</v>
-      </c>
-      <c r="B597" t="s">
+      <c r="A597" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B597" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="E597" t="s">
+      <c r="C597" s="2"/>
+      <c r="D597" s="2"/>
+      <c r="E597" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
-        <v>14</v>
-      </c>
-      <c r="B598" t="s">
+      <c r="A598" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B598" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="E598" t="s">
+      <c r="C598" s="2"/>
+      <c r="D598" s="2"/>
+      <c r="E598" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
-        <v>14</v>
-      </c>
-      <c r="B599" t="s">
+      <c r="A599" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B599" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="E599" t="s">
+      <c r="C599" s="2"/>
+      <c r="D599" s="2"/>
+      <c r="E599" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
-        <v>14</v>
-      </c>
-      <c r="B600" t="s">
+      <c r="A600" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B600" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="E600" t="s">
+      <c r="C600" s="2"/>
+      <c r="D600" s="2"/>
+      <c r="E600" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>14</v>
-      </c>
-      <c r="B601" t="s">
+      <c r="A601" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B601" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="E601" t="s">
+      <c r="C601" s="2"/>
+      <c r="D601" s="2"/>
+      <c r="E601" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>14</v>
-      </c>
-      <c r="B602" t="s">
+      <c r="A602" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B602" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="E602" t="s">
+      <c r="C602" s="2"/>
+      <c r="D602" s="2"/>
+      <c r="E602" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>14</v>
-      </c>
-      <c r="B603" t="s">
+      <c r="A603" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B603" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="E603" t="s">
+      <c r="C603" s="2"/>
+      <c r="D603" s="2"/>
+      <c r="E603" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>14</v>
-      </c>
-      <c r="B604" t="s">
+      <c r="A604" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B604" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="E604" t="s">
+      <c r="C604" s="2"/>
+      <c r="D604" s="2"/>
+      <c r="E604" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
-        <v>14</v>
-      </c>
-      <c r="B605" t="s">
+      <c r="A605" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B605" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="E605" t="s">
+      <c r="C605" s="2"/>
+      <c r="D605" s="2"/>
+      <c r="E605" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>14</v>
-      </c>
-      <c r="B606" t="s">
+      <c r="A606" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B606" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="E606" t="s">
+      <c r="C606" s="2"/>
+      <c r="D606" s="2"/>
+      <c r="E606" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
-        <v>14</v>
-      </c>
-      <c r="B607" t="s">
+      <c r="A607" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B607" s="2" t="s">
         <v>1481</v>
       </c>
-      <c r="E607" t="s">
+      <c r="C607" s="2"/>
+      <c r="D607" s="2"/>
+      <c r="E607" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>14</v>
-      </c>
-      <c r="B608" t="s">
+      <c r="A608" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B608" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="E608" t="s">
+      <c r="C608" s="2"/>
+      <c r="D608" s="2"/>
+      <c r="E608" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>14</v>
-      </c>
-      <c r="B609" t="s">
+      <c r="A609" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B609" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="E609" t="s">
+      <c r="C609" s="2"/>
+      <c r="D609" s="2"/>
+      <c r="E609" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
-        <v>14</v>
-      </c>
-      <c r="B610" t="s">
+      <c r="A610" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B610" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="E610" t="s">
+      <c r="C610" s="2"/>
+      <c r="D610" s="2"/>
+      <c r="E610" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
-        <v>14</v>
-      </c>
-      <c r="B611" t="s">
+      <c r="A611" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B611" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="E611" t="s">
+      <c r="C611" s="2"/>
+      <c r="D611" s="2"/>
+      <c r="E611" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>14</v>
-      </c>
-      <c r="B612" t="s">
+      <c r="A612" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B612" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="E612" t="s">
+      <c r="C612" s="2"/>
+      <c r="D612" s="2"/>
+      <c r="E612" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
-        <v>14</v>
-      </c>
-      <c r="B613" t="s">
+      <c r="A613" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B613" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="E613" t="s">
+      <c r="C613" s="2"/>
+      <c r="D613" s="2"/>
+      <c r="E613" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>14</v>
-      </c>
-      <c r="B614" t="s">
+      <c r="A614" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B614" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="E614" t="s">
+      <c r="C614" s="2"/>
+      <c r="D614" s="2"/>
+      <c r="E614" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>14</v>
-      </c>
-      <c r="B615" t="s">
+      <c r="A615" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B615" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="E615" t="s">
+      <c r="C615" s="2"/>
+      <c r="D615" s="2"/>
+      <c r="E615" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>14</v>
-      </c>
-      <c r="B616" t="s">
+      <c r="A616" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B616" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="E616" t="s">
+      <c r="C616" s="2"/>
+      <c r="D616" s="2"/>
+      <c r="E616" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>14</v>
-      </c>
-      <c r="B617" t="s">
+      <c r="A617" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B617" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="E617" t="s">
+      <c r="C617" s="2"/>
+      <c r="D617" s="2"/>
+      <c r="E617" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>14</v>
-      </c>
-      <c r="B618" t="s">
+      <c r="A618" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B618" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="E618" t="s">
+      <c r="C618" s="2"/>
+      <c r="D618" s="2"/>
+      <c r="E618" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+      <c r="A619" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="E619" t="s">
+      <c r="C619" s="2"/>
+      <c r="D619" s="2"/>
+      <c r="E619" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+      <c r="A620" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B620" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="E620" t="s">
+      <c r="C620" s="2"/>
+      <c r="D620" s="2"/>
+      <c r="E620" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+      <c r="A621" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="E621" t="s">
+      <c r="C621" s="2"/>
+      <c r="D621" s="2"/>
+      <c r="E621" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+      <c r="A622" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="E622" t="s">
+      <c r="C622" s="2"/>
+      <c r="D622" s="2"/>
+      <c r="E622" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
+      <c r="A623" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="E623" t="s">
+      <c r="C623" s="2"/>
+      <c r="D623" s="2"/>
+      <c r="E623" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
+      <c r="A624" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="E624" t="s">
+      <c r="C624" s="2"/>
+      <c r="D624" s="2"/>
+      <c r="E624" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+      <c r="A625" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B625" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="E625" t="s">
+      <c r="C625" s="2"/>
+      <c r="D625" s="2"/>
+      <c r="E625" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+      <c r="A626" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="E626" t="s">
+      <c r="C626" s="2"/>
+      <c r="D626" s="2"/>
+      <c r="E626" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+      <c r="A627" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="E627" t="s">
+      <c r="C627" s="2"/>
+      <c r="D627" s="2"/>
+      <c r="E627" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+      <c r="A628" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="E628" t="s">
+      <c r="C628" s="2"/>
+      <c r="D628" s="2"/>
+      <c r="E628" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
+      <c r="A629" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B629" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="E629" t="s">
+      <c r="C629" s="2"/>
+      <c r="D629" s="2"/>
+      <c r="E629" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+      <c r="A630" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="E630" t="s">
+      <c r="C630" s="2"/>
+      <c r="D630" s="2"/>
+      <c r="E630" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+      <c r="A631" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B631" t="s">
+      <c r="B631" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="E631" t="s">
+      <c r="C631" s="2"/>
+      <c r="D631" s="2"/>
+      <c r="E631" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+      <c r="A632" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B632" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="E632" t="s">
+      <c r="C632" s="2"/>
+      <c r="D632" s="2"/>
+      <c r="E632" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+      <c r="A633" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B633" t="s">
+      <c r="B633" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="E633" t="s">
+      <c r="C633" s="2"/>
+      <c r="D633" s="2"/>
+      <c r="E633" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+      <c r="A634" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B634" t="s">
+      <c r="B634" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="E634" t="s">
+      <c r="C634" s="2"/>
+      <c r="D634" s="2"/>
+      <c r="E634" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+      <c r="A635" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="E635" t="s">
+      <c r="C635" s="2"/>
+      <c r="D635" s="2"/>
+      <c r="E635" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+      <c r="A636" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B636" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="E636" t="s">
+      <c r="C636" s="2"/>
+      <c r="D636" s="2"/>
+      <c r="E636" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+      <c r="A637" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B637" t="s">
+      <c r="B637" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="E637" t="s">
+      <c r="C637" s="2"/>
+      <c r="D637" s="2"/>
+      <c r="E637" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+      <c r="A638" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B638" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="E638" t="s">
+      <c r="C638" s="2"/>
+      <c r="D638" s="2"/>
+      <c r="E638" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+      <c r="A639" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B639" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="E639" t="s">
+      <c r="C639" s="2"/>
+      <c r="D639" s="2"/>
+      <c r="E639" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
+      <c r="A640" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="E640" t="s">
+      <c r="C640" s="2"/>
+      <c r="D640" s="2"/>
+      <c r="E640" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
+      <c r="A641" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B641" t="s">
+      <c r="B641" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="E641" t="s">
+      <c r="C641" s="2"/>
+      <c r="D641" s="2"/>
+      <c r="E641" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+      <c r="A642" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B642" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="E642" t="s">
+      <c r="C642" s="2"/>
+      <c r="D642" s="2"/>
+      <c r="E642" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
+      <c r="A643" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B643" t="s">
+      <c r="B643" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E643" t="s">
+      <c r="C643" s="2"/>
+      <c r="D643" s="2"/>
+      <c r="E643" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+      <c r="A644" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B644" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="E644" t="s">
+      <c r="C644" s="2"/>
+      <c r="D644" s="2"/>
+      <c r="E644" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+      <c r="A645" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B645" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="E645" t="s">
+      <c r="C645" s="2"/>
+      <c r="D645" s="2"/>
+      <c r="E645" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+      <c r="A646" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B646" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="E646" t="s">
+      <c r="C646" s="2"/>
+      <c r="D646" s="2"/>
+      <c r="E646" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+      <c r="A647" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B647" t="s">
+      <c r="B647" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="E647" t="s">
+      <c r="C647" s="2"/>
+      <c r="D647" s="2"/>
+      <c r="E647" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+      <c r="A648" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B648" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="E648" t="s">
+      <c r="C648" s="2"/>
+      <c r="D648" s="2"/>
+      <c r="E648" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
